--- a/telegram_bot/templet_files/e_side_marks.xlsx
+++ b/telegram_bot/templet_files/e_side_marks.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t xml:space="preserve">الفصل الاول</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">المجموع</t>
+  </si>
+  <si>
+    <t xml:space="preserve">المعدل </t>
   </si>
 </sst>
 </file>
@@ -88,12 +91,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBABABA"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,7 +139,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -143,16 +152,24 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -164,6 +181,94 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FFCC0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF006600"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFBABABA"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -175,7 +280,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="22.05" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -183,36 +288,38 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="35.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="2" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="14" style="1" width="11.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="2" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="9" style="2" width="15.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="13" style="4" width="15.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="15" style="1" width="11.55"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="19" style="1" width="11.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0"/>
+      <c r="A1" s="5"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -233,7 +340,7 @@
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -248,8 +355,11 @@
       <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -257,6 +367,30 @@
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:M1"/>
   </mergeCells>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" priority="2" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="3" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="cellIs" priority="4" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="cellIs" priority="6" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="7" operator="greaterThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
